--- a/Tables/Screen.xlsx
+++ b/Tables/Screen.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarthak\Desktop\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ASU_Sem_II\412_DBM_pappoti\project\phase2\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8796"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>size</t>
   </si>
@@ -33,6 +33,69 @@
   </si>
   <si>
     <t>experience</t>
+  </si>
+  <si>
+    <t>'H01'</t>
+  </si>
+  <si>
+    <t>'H02'</t>
+  </si>
+  <si>
+    <t>'H05'</t>
+  </si>
+  <si>
+    <t>'H07'</t>
+  </si>
+  <si>
+    <t>'H09'</t>
+  </si>
+  <si>
+    <t>'H12'</t>
+  </si>
+  <si>
+    <t>'H13'</t>
+  </si>
+  <si>
+    <t>'H16'</t>
+  </si>
+  <si>
+    <t>'H17'</t>
+  </si>
+  <si>
+    <t>'H18'</t>
+  </si>
+  <si>
+    <t>hall_id</t>
+  </si>
+  <si>
+    <t>'2D'</t>
+  </si>
+  <si>
+    <t>'4500 sq feet'</t>
+  </si>
+  <si>
+    <t>'3500 sq feet'</t>
+  </si>
+  <si>
+    <t>'5000 sq feet'</t>
+  </si>
+  <si>
+    <t>'2500 sq feet'</t>
+  </si>
+  <si>
+    <t>'3D'</t>
+  </si>
+  <si>
+    <t>'4D'</t>
+  </si>
+  <si>
+    <t>'Dome'</t>
+  </si>
+  <si>
+    <t>'Flat'</t>
+  </si>
+  <si>
+    <t>'Curve'</t>
   </si>
 </sst>
 </file>
@@ -68,8 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,26 +448,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
